--- a/biology/Microbiologie/Rabdiaster/Rabdiaster.xlsx
+++ b/biology/Microbiologie/Rabdiaster/Rabdiaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rabdiaster est un genre d'holomycètes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rabdiaster est un genre d'holomycètes.
 L'amibe est couverte d'un périplasme composé de plaques tangentielles (écailles) et de spicules radiaux. Les écailles ne présentent pas de trous en face externe.
 L'espèce type est Rabdiaster pertzovi.
 </t>
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rabdiaster pertzovi (Mikrjukov, 1994) Mikrjukov, 1999
 Rabdiaster apora (Croome, 1987) Mikrjukov, 1999
